--- a/S32M2/S32M27x_interrupt_map.xlsx
+++ b/S32M2/S32M27x_interrupt_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxf39440\Documents\S32M RMs\M27x sheets\Rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/felipe_garcia_1_nxp_com/Documents/Auto - Apps/S32M2/Pinout spredsheets/S32M27x/S32M27x_Spreadsheets_Aug2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA2F5E-0CF3-4A28-940A-4C748D69FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{85AA2F5E-0CF3-4A28-940A-4C748D69FA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67D2D8A8-3B90-468A-BE61-56A172F68739}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="537">
   <si>
     <t>Address</t>
   </si>
@@ -1002,9 +1002,6 @@
   </si>
   <si>
     <t>LPSPI_1</t>
-  </si>
-  <si>
-    <t>LPSPI_2</t>
   </si>
   <si>
     <t>LPSPI_3</t>
@@ -1800,9 +1797,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1840,9 +1837,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1875,26 +1872,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1927,26 +1907,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2131,7 +2094,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="7" customFormat="1" ht="35.4" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -2144,10 +2107,10 @@
   <dimension ref="A1:J1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I943" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I936" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J957" sqref="J957"/>
+      <selection pane="bottomRight" activeCell="H958" sqref="H958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,13 +2148,13 @@
         <v>257</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2215,13 +2178,13 @@
         <v>258</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2245,13 +2208,13 @@
         <v>258</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2275,13 +2238,13 @@
         <v>258</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,13 +2268,13 @@
         <v>258</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2335,13 +2298,13 @@
         <v>258</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2365,13 +2328,13 @@
         <v>258</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2395,13 +2358,13 @@
         <v>258</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2426,10 +2389,10 @@
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2454,10 +2417,10 @@
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2482,10 +2445,10 @@
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2510,10 +2473,10 @@
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,13 +2500,13 @@
         <v>258</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2567,13 +2530,13 @@
         <v>258</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2598,10 +2561,10 @@
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,13 +2588,13 @@
         <v>260</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2655,13 +2618,13 @@
         <v>260</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2807,13 +2770,13 @@
         <v>261</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2839,13 +2802,13 @@
         <v>262</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2871,13 +2834,13 @@
         <v>263</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2903,13 +2866,13 @@
         <v>264</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2935,13 +2898,13 @@
         <v>265</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2967,13 +2930,13 @@
         <v>266</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,13 +2962,13 @@
         <v>267</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3031,13 +2994,13 @@
         <v>268</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3063,13 +3026,13 @@
         <v>269</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3095,13 +3058,13 @@
         <v>270</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3127,13 +3090,13 @@
         <v>271</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3159,13 +3122,13 @@
         <v>272</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3831,13 +3794,13 @@
         <v>273</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3883,13 +3846,13 @@
         <v>273</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3933,13 +3896,13 @@
         <v>274</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3965,13 +3928,13 @@
         <v>275</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4061,13 +4024,13 @@
         <v>276</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4155,13 +4118,13 @@
         <v>277</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4247,13 +4210,13 @@
         <v>278</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4279,13 +4242,13 @@
         <v>278</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4297,13 +4260,13 @@
       <c r="F70" s="4"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4329,13 +4292,13 @@
         <v>278</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4361,13 +4324,13 @@
         <v>279</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4393,13 +4356,13 @@
         <v>280</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4411,13 +4374,13 @@
       <c r="F74" s="4"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4443,13 +4406,13 @@
         <v>281</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4475,13 +4438,13 @@
         <v>282</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4507,13 +4470,13 @@
         <v>283</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4539,13 +4502,13 @@
         <v>284</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4570,10 +4533,10 @@
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4598,10 +4561,10 @@
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4626,10 +4589,10 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4654,10 +4617,10 @@
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4683,13 +4646,13 @@
         <v>285</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4701,13 +4664,13 @@
       <c r="F84" s="4"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4719,13 +4682,13 @@
       <c r="F85" s="4"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4737,13 +4700,13 @@
       <c r="F86" s="4"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4769,13 +4732,13 @@
         <v>285</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4787,13 +4750,13 @@
       <c r="F88" s="4"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4805,13 +4768,13 @@
       <c r="F89" s="4"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4823,13 +4786,13 @@
       <c r="F90" s="4"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4855,13 +4818,13 @@
         <v>285</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4873,13 +4836,13 @@
       <c r="F92" s="4"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4891,13 +4854,13 @@
       <c r="F93" s="4"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4909,13 +4872,13 @@
       <c r="F94" s="4"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4941,13 +4904,13 @@
         <v>285</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4959,13 +4922,13 @@
       <c r="F96" s="4"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4977,13 +4940,13 @@
       <c r="F97" s="4"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -4995,13 +4958,13 @@
       <c r="F98" s="4"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5027,13 +4990,13 @@
         <v>285</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5045,13 +5008,13 @@
       <c r="F100" s="4"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5063,13 +5026,13 @@
       <c r="F101" s="4"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5081,13 +5044,13 @@
       <c r="F102" s="4"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5113,13 +5076,13 @@
         <v>285</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5131,13 +5094,13 @@
       <c r="F104" s="4"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5149,13 +5112,13 @@
       <c r="F105" s="4"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5167,13 +5130,13 @@
       <c r="F106" s="4"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5198,10 +5161,10 @@
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5226,10 +5189,10 @@
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5255,13 +5218,13 @@
         <v>286</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5273,13 +5236,13 @@
       <c r="F110" s="4"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5291,13 +5254,13 @@
       <c r="F111" s="4"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5309,13 +5272,13 @@
       <c r="F112" s="4"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5341,13 +5304,13 @@
         <v>286</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5359,13 +5322,13 @@
       <c r="F114" s="4"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5377,13 +5340,13 @@
       <c r="F115" s="4"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5395,13 +5358,13 @@
       <c r="F116" s="4"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5427,13 +5390,13 @@
         <v>286</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5445,13 +5408,13 @@
       <c r="F118" s="4"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5463,13 +5426,13 @@
       <c r="F119" s="4"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5481,13 +5444,13 @@
       <c r="F120" s="4"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5513,13 +5476,13 @@
         <v>286</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5531,13 +5494,13 @@
       <c r="F122" s="4"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5549,13 +5512,13 @@
       <c r="F123" s="4"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5567,13 +5530,13 @@
       <c r="F124" s="4"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5599,13 +5562,13 @@
         <v>286</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5617,13 +5580,13 @@
       <c r="F126" s="4"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5635,13 +5598,13 @@
       <c r="F127" s="4"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5653,13 +5616,13 @@
       <c r="F128" s="4"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5685,13 +5648,13 @@
         <v>286</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,13 +5666,13 @@
       <c r="F130" s="4"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5721,13 +5684,13 @@
       <c r="F131" s="4"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5739,13 +5702,13 @@
       <c r="F132" s="4"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5770,10 +5733,10 @@
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5798,10 +5761,10 @@
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6379,13 +6342,13 @@
         <v>287</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6397,13 +6360,13 @@
       <c r="F160" s="4"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6415,13 +6378,13 @@
       <c r="F161" s="4"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6433,13 +6396,13 @@
       <c r="F162" s="4"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6451,13 +6414,13 @@
       <c r="F163" s="4"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6469,13 +6432,13 @@
       <c r="F164" s="4"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6487,13 +6450,13 @@
       <c r="F165" s="4"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6505,13 +6468,13 @@
       <c r="F166" s="4"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6537,13 +6500,13 @@
         <v>288</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6569,13 +6532,13 @@
         <v>289</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6601,13 +6564,13 @@
         <v>290</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6633,13 +6596,13 @@
         <v>291</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6651,13 +6614,13 @@
       <c r="F171" s="4"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6669,13 +6632,13 @@
       <c r="F172" s="4"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6707,13 +6670,13 @@
       <c r="F174" s="4"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6725,13 +6688,13 @@
       <c r="F175" s="4"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6743,13 +6706,13 @@
       <c r="F176" s="4"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6774,10 +6737,10 @@
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6802,10 +6765,10 @@
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6830,10 +6793,10 @@
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6858,10 +6821,10 @@
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6887,13 +6850,13 @@
         <v>292</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6905,13 +6868,13 @@
       <c r="F182" s="4"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6923,13 +6886,13 @@
       <c r="F183" s="4"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6955,13 +6918,13 @@
         <v>293</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6973,13 +6936,13 @@
       <c r="F185" s="4"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -6991,13 +6954,13 @@
       <c r="F186" s="4"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7022,10 +6985,10 @@
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7050,10 +7013,10 @@
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7079,13 +7042,13 @@
         <v>294</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7097,13 +7060,13 @@
       <c r="F190" s="4"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7115,13 +7078,13 @@
       <c r="F191" s="4"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7133,13 +7096,13 @@
       <c r="F192" s="4"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7151,13 +7114,13 @@
       <c r="F193" s="4"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7183,13 +7146,13 @@
         <v>295</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7201,13 +7164,13 @@
       <c r="F195" s="4"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7219,13 +7182,13 @@
       <c r="F196" s="4"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7237,13 +7200,13 @@
       <c r="F197" s="4"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7360,10 +7323,10 @@
       </c>
       <c r="H202" s="5"/>
       <c r="I202" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7388,10 +7351,10 @@
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7416,10 +7379,10 @@
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7445,13 +7408,13 @@
         <v>296</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7463,13 +7426,13 @@
       <c r="F206" s="4"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7494,10 +7457,10 @@
       </c>
       <c r="H207" s="5"/>
       <c r="I207" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7522,10 +7485,10 @@
       </c>
       <c r="H208" s="5"/>
       <c r="I208" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7739,13 +7702,13 @@
         <v>297</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7757,13 +7720,13 @@
       <c r="F217" s="4"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7775,13 +7738,13 @@
       <c r="F218" s="4"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7793,13 +7756,13 @@
       <c r="F219" s="4"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7811,13 +7774,13 @@
       <c r="F220" s="4"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7829,13 +7792,13 @@
       <c r="F221" s="4"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7847,13 +7810,13 @@
       <c r="F222" s="4"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7865,13 +7828,13 @@
       <c r="F223" s="4"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7883,13 +7846,13 @@
       <c r="F224" s="4"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7915,13 +7878,13 @@
         <v>298</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="226" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7933,13 +7896,13 @@
       <c r="F226" s="4"/>
       <c r="G226" s="5"/>
       <c r="H226" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="227" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7951,13 +7914,13 @@
       <c r="F227" s="4"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7969,13 +7932,13 @@
       <c r="F228" s="4"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7987,13 +7950,13 @@
       <c r="F229" s="4"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8005,13 +7968,13 @@
       <c r="F230" s="4"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8023,13 +7986,13 @@
       <c r="F231" s="4"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="232" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8041,13 +8004,13 @@
       <c r="F232" s="4"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8059,13 +8022,13 @@
       <c r="F233" s="4"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8077,13 +8040,13 @@
       <c r="F234" s="4"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8095,13 +8058,13 @@
       <c r="F235" s="4"/>
       <c r="G235" s="5"/>
       <c r="H235" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8113,13 +8076,13 @@
       <c r="F236" s="4"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8131,13 +8094,13 @@
       <c r="F237" s="4"/>
       <c r="G237" s="5"/>
       <c r="H237" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8149,13 +8112,13 @@
       <c r="F238" s="4"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="239" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8167,13 +8130,13 @@
       <c r="F239" s="4"/>
       <c r="G239" s="5"/>
       <c r="H239" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="240" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8185,13 +8148,13 @@
       <c r="F240" s="4"/>
       <c r="G240" s="5"/>
       <c r="H240" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="241" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8203,13 +8166,13 @@
       <c r="F241" s="4"/>
       <c r="G241" s="5"/>
       <c r="H241" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="242" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8221,13 +8184,13 @@
       <c r="F242" s="4"/>
       <c r="G242" s="5"/>
       <c r="H242" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="243" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8239,13 +8202,13 @@
       <c r="F243" s="4"/>
       <c r="G243" s="5"/>
       <c r="H243" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="244" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8257,13 +8220,13 @@
       <c r="F244" s="4"/>
       <c r="G244" s="5"/>
       <c r="H244" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="245" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8275,13 +8238,13 @@
       <c r="F245" s="4"/>
       <c r="G245" s="5"/>
       <c r="H245" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="246" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8293,13 +8256,13 @@
       <c r="F246" s="4"/>
       <c r="G246" s="5"/>
       <c r="H246" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8311,13 +8274,13 @@
       <c r="F247" s="4"/>
       <c r="G247" s="5"/>
       <c r="H247" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="248" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8329,13 +8292,13 @@
       <c r="F248" s="4"/>
       <c r="G248" s="5"/>
       <c r="H248" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8347,13 +8310,13 @@
       <c r="F249" s="4"/>
       <c r="G249" s="5"/>
       <c r="H249" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8365,13 +8328,13 @@
       <c r="F250" s="4"/>
       <c r="G250" s="5"/>
       <c r="H250" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8383,13 +8346,13 @@
       <c r="F251" s="4"/>
       <c r="G251" s="5"/>
       <c r="H251" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="252" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8401,13 +8364,13 @@
       <c r="F252" s="4"/>
       <c r="G252" s="5"/>
       <c r="H252" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8419,13 +8382,13 @@
       <c r="F253" s="4"/>
       <c r="G253" s="5"/>
       <c r="H253" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8437,13 +8400,13 @@
       <c r="F254" s="4"/>
       <c r="G254" s="5"/>
       <c r="H254" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8455,13 +8418,13 @@
       <c r="F255" s="4"/>
       <c r="G255" s="5"/>
       <c r="H255" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8473,13 +8436,13 @@
       <c r="F256" s="4"/>
       <c r="G256" s="5"/>
       <c r="H256" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8491,13 +8454,13 @@
       <c r="F257" s="4"/>
       <c r="G257" s="5"/>
       <c r="H257" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8509,13 +8472,13 @@
       <c r="F258" s="4"/>
       <c r="G258" s="5"/>
       <c r="H258" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8527,13 +8490,13 @@
       <c r="F259" s="4"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8545,13 +8508,13 @@
       <c r="F260" s="4"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8577,13 +8540,13 @@
         <v>299</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8595,13 +8558,13 @@
       <c r="F262" s="4"/>
       <c r="G262" s="5"/>
       <c r="H262" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8613,13 +8576,13 @@
       <c r="F263" s="4"/>
       <c r="G263" s="5"/>
       <c r="H263" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8631,13 +8594,13 @@
       <c r="F264" s="4"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8649,13 +8612,13 @@
       <c r="F265" s="4"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8667,13 +8630,13 @@
       <c r="F266" s="4"/>
       <c r="G266" s="5"/>
       <c r="H266" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8685,13 +8648,13 @@
       <c r="F267" s="4"/>
       <c r="G267" s="5"/>
       <c r="H267" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8703,13 +8666,13 @@
       <c r="F268" s="4"/>
       <c r="G268" s="5"/>
       <c r="H268" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8721,13 +8684,13 @@
       <c r="F269" s="4"/>
       <c r="G269" s="5"/>
       <c r="H269" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8739,13 +8702,13 @@
       <c r="F270" s="4"/>
       <c r="G270" s="5"/>
       <c r="H270" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8757,13 +8720,13 @@
       <c r="F271" s="4"/>
       <c r="G271" s="5"/>
       <c r="H271" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8775,13 +8738,13 @@
       <c r="F272" s="4"/>
       <c r="G272" s="5"/>
       <c r="H272" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8793,13 +8756,13 @@
       <c r="F273" s="4"/>
       <c r="G273" s="5"/>
       <c r="H273" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8811,13 +8774,13 @@
       <c r="F274" s="4"/>
       <c r="G274" s="5"/>
       <c r="H274" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8829,13 +8792,13 @@
       <c r="F275" s="4"/>
       <c r="G275" s="5"/>
       <c r="H275" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8847,13 +8810,13 @@
       <c r="F276" s="4"/>
       <c r="G276" s="5"/>
       <c r="H276" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J276" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8865,13 +8828,13 @@
       <c r="F277" s="4"/>
       <c r="G277" s="5"/>
       <c r="H277" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8883,13 +8846,13 @@
       <c r="F278" s="4"/>
       <c r="G278" s="5"/>
       <c r="H278" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J278" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8901,13 +8864,13 @@
       <c r="F279" s="4"/>
       <c r="G279" s="5"/>
       <c r="H279" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8919,13 +8882,13 @@
       <c r="F280" s="4"/>
       <c r="G280" s="5"/>
       <c r="H280" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8937,13 +8900,13 @@
       <c r="F281" s="4"/>
       <c r="G281" s="5"/>
       <c r="H281" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8955,13 +8918,13 @@
       <c r="F282" s="4"/>
       <c r="G282" s="5"/>
       <c r="H282" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="283" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8973,13 +8936,13 @@
       <c r="F283" s="4"/>
       <c r="G283" s="5"/>
       <c r="H283" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8991,13 +8954,13 @@
       <c r="F284" s="4"/>
       <c r="G284" s="5"/>
       <c r="H284" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9009,13 +8972,13 @@
       <c r="F285" s="4"/>
       <c r="G285" s="5"/>
       <c r="H285" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9027,13 +8990,13 @@
       <c r="F286" s="4"/>
       <c r="G286" s="5"/>
       <c r="H286" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9045,13 +9008,13 @@
       <c r="F287" s="4"/>
       <c r="G287" s="5"/>
       <c r="H287" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J287" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9063,13 +9026,13 @@
       <c r="F288" s="4"/>
       <c r="G288" s="5"/>
       <c r="H288" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9081,13 +9044,13 @@
       <c r="F289" s="4"/>
       <c r="G289" s="5"/>
       <c r="H289" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J289" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="290" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9099,13 +9062,13 @@
       <c r="F290" s="4"/>
       <c r="G290" s="5"/>
       <c r="H290" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="291" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9117,13 +9080,13 @@
       <c r="F291" s="4"/>
       <c r="G291" s="5"/>
       <c r="H291" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="292" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9135,13 +9098,13 @@
       <c r="F292" s="4"/>
       <c r="G292" s="5"/>
       <c r="H292" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="293" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9819,13 +9782,13 @@
         <v>300</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J325" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="326" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9837,13 +9800,13 @@
       <c r="F326" s="4"/>
       <c r="G326" s="5"/>
       <c r="H326" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J326" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="327" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9855,13 +9818,13 @@
       <c r="F327" s="4"/>
       <c r="G327" s="5"/>
       <c r="H327" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I327" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J327" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="328" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9873,13 +9836,13 @@
       <c r="F328" s="4"/>
       <c r="G328" s="5"/>
       <c r="H328" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I328" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J328" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="329" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9891,13 +9854,13 @@
       <c r="F329" s="4"/>
       <c r="G329" s="5"/>
       <c r="H329" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I329" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J329" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="330" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9909,13 +9872,13 @@
       <c r="F330" s="4"/>
       <c r="G330" s="5"/>
       <c r="H330" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I330" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J330" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="331" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9927,13 +9890,13 @@
       <c r="F331" s="4"/>
       <c r="G331" s="5"/>
       <c r="H331" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I331" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J331" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="332" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9945,13 +9908,13 @@
       <c r="F332" s="4"/>
       <c r="G332" s="5"/>
       <c r="H332" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I332" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J332" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="333" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9963,13 +9926,13 @@
       <c r="F333" s="4"/>
       <c r="G333" s="5"/>
       <c r="H333" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="334" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9995,13 +9958,13 @@
         <v>301</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I334" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J334" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="335" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10013,13 +9976,13 @@
       <c r="F335" s="4"/>
       <c r="G335" s="5"/>
       <c r="H335" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I335" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J335" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="336" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10031,13 +9994,13 @@
       <c r="F336" s="4"/>
       <c r="G336" s="5"/>
       <c r="H336" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I336" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J336" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="337" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10049,13 +10012,13 @@
       <c r="F337" s="4"/>
       <c r="G337" s="5"/>
       <c r="H337" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I337" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J337" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="338" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10067,13 +10030,13 @@
       <c r="F338" s="4"/>
       <c r="G338" s="5"/>
       <c r="H338" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I338" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J338" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="339" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10085,13 +10048,13 @@
       <c r="F339" s="4"/>
       <c r="G339" s="5"/>
       <c r="H339" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I339" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J339" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="340" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10103,13 +10066,13 @@
       <c r="F340" s="4"/>
       <c r="G340" s="5"/>
       <c r="H340" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I340" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J340" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="341" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10121,13 +10084,13 @@
       <c r="F341" s="4"/>
       <c r="G341" s="5"/>
       <c r="H341" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I341" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J341" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="342" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10139,13 +10102,13 @@
       <c r="F342" s="4"/>
       <c r="G342" s="5"/>
       <c r="H342" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I342" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J342" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="343" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10157,13 +10120,13 @@
       <c r="F343" s="4"/>
       <c r="G343" s="5"/>
       <c r="H343" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I343" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="344" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10175,13 +10138,13 @@
       <c r="F344" s="4"/>
       <c r="G344" s="5"/>
       <c r="H344" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="345" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10193,13 +10156,13 @@
       <c r="F345" s="4"/>
       <c r="G345" s="5"/>
       <c r="H345" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I345" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J345" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="346" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10211,13 +10174,13 @@
       <c r="F346" s="4"/>
       <c r="G346" s="5"/>
       <c r="H346" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J346" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="347" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10229,13 +10192,13 @@
       <c r="F347" s="4"/>
       <c r="G347" s="5"/>
       <c r="H347" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I347" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J347" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="348" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10247,13 +10210,13 @@
       <c r="F348" s="4"/>
       <c r="G348" s="5"/>
       <c r="H348" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I348" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J348" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="349" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10265,13 +10228,13 @@
       <c r="F349" s="4"/>
       <c r="G349" s="5"/>
       <c r="H349" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I349" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J349" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="350" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10283,13 +10246,13 @@
       <c r="F350" s="4"/>
       <c r="G350" s="5"/>
       <c r="H350" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I350" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J350" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="351" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10301,13 +10264,13 @@
       <c r="F351" s="4"/>
       <c r="G351" s="5"/>
       <c r="H351" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I351" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J351" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="352" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10319,13 +10282,13 @@
       <c r="F352" s="4"/>
       <c r="G352" s="5"/>
       <c r="H352" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I352" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J352" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="353" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10337,13 +10300,13 @@
       <c r="F353" s="4"/>
       <c r="G353" s="5"/>
       <c r="H353" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I353" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J353" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="354" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10355,13 +10318,13 @@
       <c r="F354" s="4"/>
       <c r="G354" s="5"/>
       <c r="H354" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I354" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J354" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="355" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10373,13 +10336,13 @@
       <c r="F355" s="4"/>
       <c r="G355" s="5"/>
       <c r="H355" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I355" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J355" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="356" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10391,13 +10354,13 @@
       <c r="F356" s="4"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I356" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J356" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="357" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10409,13 +10372,13 @@
       <c r="F357" s="4"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I357" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J357" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="358" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10427,13 +10390,13 @@
       <c r="F358" s="4"/>
       <c r="G358" s="5"/>
       <c r="H358" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I358" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J358" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="359" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10445,13 +10408,13 @@
       <c r="F359" s="4"/>
       <c r="G359" s="5"/>
       <c r="H359" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I359" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J359" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="360" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10463,13 +10426,13 @@
       <c r="F360" s="4"/>
       <c r="G360" s="5"/>
       <c r="H360" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I360" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J360" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="361" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10481,13 +10444,13 @@
       <c r="F361" s="4"/>
       <c r="G361" s="5"/>
       <c r="H361" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I361" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J361" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="362" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10499,13 +10462,13 @@
       <c r="F362" s="4"/>
       <c r="G362" s="5"/>
       <c r="H362" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I362" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J362" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="363" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10517,13 +10480,13 @@
       <c r="F363" s="4"/>
       <c r="G363" s="5"/>
       <c r="H363" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I363" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J363" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="364" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10535,13 +10498,13 @@
       <c r="F364" s="4"/>
       <c r="G364" s="5"/>
       <c r="H364" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I364" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J364" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="365" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10553,13 +10516,13 @@
       <c r="F365" s="4"/>
       <c r="G365" s="5"/>
       <c r="H365" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I365" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J365" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="366" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10665,13 +10628,13 @@
         <v>302</v>
       </c>
       <c r="H370" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I370" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J370" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="371" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10683,13 +10646,13 @@
       <c r="F371" s="4"/>
       <c r="G371" s="5"/>
       <c r="H371" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I371" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J371" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="372" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10701,13 +10664,13 @@
       <c r="F372" s="4"/>
       <c r="G372" s="5"/>
       <c r="H372" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I372" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J372" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="373" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10719,13 +10682,13 @@
       <c r="F373" s="4"/>
       <c r="G373" s="5"/>
       <c r="H373" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I373" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J373" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="374" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10737,13 +10700,13 @@
       <c r="F374" s="4"/>
       <c r="G374" s="5"/>
       <c r="H374" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I374" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J374" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="375" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10755,13 +10718,13 @@
       <c r="F375" s="4"/>
       <c r="G375" s="5"/>
       <c r="H375" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I375" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J375" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="376" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10773,13 +10736,13 @@
       <c r="F376" s="4"/>
       <c r="G376" s="5"/>
       <c r="H376" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I376" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J376" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="377" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10791,13 +10754,13 @@
       <c r="F377" s="4"/>
       <c r="G377" s="5"/>
       <c r="H377" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I377" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J377" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="378" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10809,13 +10772,13 @@
       <c r="F378" s="4"/>
       <c r="G378" s="5"/>
       <c r="H378" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I378" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J378" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="379" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10827,13 +10790,13 @@
       <c r="F379" s="4"/>
       <c r="G379" s="5"/>
       <c r="H379" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I379" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J379" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="380" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10845,13 +10808,13 @@
       <c r="F380" s="4"/>
       <c r="G380" s="5"/>
       <c r="H380" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I380" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J380" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="381" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10863,13 +10826,13 @@
       <c r="F381" s="4"/>
       <c r="G381" s="5"/>
       <c r="H381" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I381" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J381" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="382" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10881,13 +10844,13 @@
       <c r="F382" s="4"/>
       <c r="G382" s="5"/>
       <c r="H382" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I382" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J382" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="383" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10899,13 +10862,13 @@
       <c r="F383" s="4"/>
       <c r="G383" s="5"/>
       <c r="H383" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I383" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J383" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="384" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10917,13 +10880,13 @@
       <c r="F384" s="4"/>
       <c r="G384" s="5"/>
       <c r="H384" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I384" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J384" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="385" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10935,13 +10898,13 @@
       <c r="F385" s="4"/>
       <c r="G385" s="5"/>
       <c r="H385" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I385" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J385" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="386" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10953,13 +10916,13 @@
       <c r="F386" s="4"/>
       <c r="G386" s="5"/>
       <c r="H386" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I386" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J386" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="387" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10971,13 +10934,13 @@
       <c r="F387" s="4"/>
       <c r="G387" s="5"/>
       <c r="H387" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I387" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J387" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="388" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -10989,13 +10952,13 @@
       <c r="F388" s="4"/>
       <c r="G388" s="5"/>
       <c r="H388" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I388" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J388" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="389" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11007,13 +10970,13 @@
       <c r="F389" s="4"/>
       <c r="G389" s="5"/>
       <c r="H389" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I389" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J389" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="390" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11025,13 +10988,13 @@
       <c r="F390" s="4"/>
       <c r="G390" s="5"/>
       <c r="H390" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I390" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J390" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="391" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11043,13 +11006,13 @@
       <c r="F391" s="4"/>
       <c r="G391" s="5"/>
       <c r="H391" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I391" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J391" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="392" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11061,13 +11024,13 @@
       <c r="F392" s="4"/>
       <c r="G392" s="5"/>
       <c r="H392" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I392" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J392" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="393" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11079,13 +11042,13 @@
       <c r="F393" s="4"/>
       <c r="G393" s="5"/>
       <c r="H393" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I393" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J393" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="394" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11097,13 +11060,13 @@
       <c r="F394" s="4"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I394" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J394" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="395" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11115,13 +11078,13 @@
       <c r="F395" s="4"/>
       <c r="G395" s="5"/>
       <c r="H395" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I395" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J395" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="396" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11133,13 +11096,13 @@
       <c r="F396" s="4"/>
       <c r="G396" s="5"/>
       <c r="H396" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I396" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J396" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="397" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11151,13 +11114,13 @@
       <c r="F397" s="4"/>
       <c r="G397" s="5"/>
       <c r="H397" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I397" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J397" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="398" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11169,13 +11132,13 @@
       <c r="F398" s="4"/>
       <c r="G398" s="5"/>
       <c r="H398" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J398" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="399" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11187,13 +11150,13 @@
       <c r="F399" s="4"/>
       <c r="G399" s="5"/>
       <c r="H399" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I399" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J399" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="400" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11205,13 +11168,13 @@
       <c r="F400" s="4"/>
       <c r="G400" s="5"/>
       <c r="H400" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I400" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J400" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="401" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11223,13 +11186,13 @@
       <c r="F401" s="4"/>
       <c r="G401" s="5"/>
       <c r="H401" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I401" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J401" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="402" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11255,13 +11218,13 @@
         <v>303</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I402" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J402" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="403" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11273,13 +11236,13 @@
       <c r="F403" s="4"/>
       <c r="G403" s="5"/>
       <c r="H403" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I403" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J403" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="404" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11291,13 +11254,13 @@
       <c r="F404" s="4"/>
       <c r="G404" s="5"/>
       <c r="H404" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I404" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J404" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="405" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11309,13 +11272,13 @@
       <c r="F405" s="4"/>
       <c r="G405" s="5"/>
       <c r="H405" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I405" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J405" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="406" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11327,13 +11290,13 @@
       <c r="F406" s="4"/>
       <c r="G406" s="5"/>
       <c r="H406" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I406" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J406" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="407" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11345,13 +11308,13 @@
       <c r="F407" s="4"/>
       <c r="G407" s="5"/>
       <c r="H407" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I407" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J407" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="408" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11363,13 +11326,13 @@
       <c r="F408" s="4"/>
       <c r="G408" s="5"/>
       <c r="H408" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I408" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J408" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="409" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11381,13 +11344,13 @@
       <c r="F409" s="4"/>
       <c r="G409" s="5"/>
       <c r="H409" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I409" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J409" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="410" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11399,13 +11362,13 @@
       <c r="F410" s="4"/>
       <c r="G410" s="5"/>
       <c r="H410" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I410" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J410" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="411" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11431,13 +11394,13 @@
         <v>304</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I411" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J411" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="412" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11449,13 +11412,13 @@
       <c r="F412" s="4"/>
       <c r="G412" s="5"/>
       <c r="H412" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I412" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J412" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="413" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11467,13 +11430,13 @@
       <c r="F413" s="4"/>
       <c r="G413" s="5"/>
       <c r="H413" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I413" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J413" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="414" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11485,13 +11448,13 @@
       <c r="F414" s="4"/>
       <c r="G414" s="5"/>
       <c r="H414" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I414" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J414" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="415" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11503,13 +11466,13 @@
       <c r="F415" s="4"/>
       <c r="G415" s="5"/>
       <c r="H415" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I415" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J415" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="416" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11521,13 +11484,13 @@
       <c r="F416" s="4"/>
       <c r="G416" s="5"/>
       <c r="H416" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I416" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J416" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="417" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11539,13 +11502,13 @@
       <c r="F417" s="4"/>
       <c r="G417" s="5"/>
       <c r="H417" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I417" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J417" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="418" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11557,13 +11520,13 @@
       <c r="F418" s="4"/>
       <c r="G418" s="5"/>
       <c r="H418" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I418" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J418" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="419" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11575,13 +11538,13 @@
       <c r="F419" s="4"/>
       <c r="G419" s="5"/>
       <c r="H419" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I419" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J419" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="420" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11593,13 +11556,13 @@
       <c r="F420" s="4"/>
       <c r="G420" s="5"/>
       <c r="H420" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I420" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J420" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="421" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11611,13 +11574,13 @@
       <c r="F421" s="4"/>
       <c r="G421" s="5"/>
       <c r="H421" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I421" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J421" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="422" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11629,13 +11592,13 @@
       <c r="F422" s="4"/>
       <c r="G422" s="5"/>
       <c r="H422" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I422" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J422" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="423" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11647,13 +11610,13 @@
       <c r="F423" s="4"/>
       <c r="G423" s="5"/>
       <c r="H423" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I423" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J423" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="424" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11665,13 +11628,13 @@
       <c r="F424" s="4"/>
       <c r="G424" s="5"/>
       <c r="H424" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I424" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J424" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="425" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11683,13 +11646,13 @@
       <c r="F425" s="4"/>
       <c r="G425" s="5"/>
       <c r="H425" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I425" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J425" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="426" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11701,13 +11664,13 @@
       <c r="F426" s="4"/>
       <c r="G426" s="5"/>
       <c r="H426" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I426" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J426" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11719,13 +11682,13 @@
       <c r="F427" s="4"/>
       <c r="G427" s="5"/>
       <c r="H427" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I427" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J427" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="428" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11737,13 +11700,13 @@
       <c r="F428" s="4"/>
       <c r="G428" s="5"/>
       <c r="H428" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I428" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J428" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="429" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11755,13 +11718,13 @@
       <c r="F429" s="4"/>
       <c r="G429" s="5"/>
       <c r="H429" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I429" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J429" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="430" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11773,13 +11736,13 @@
       <c r="F430" s="4"/>
       <c r="G430" s="5"/>
       <c r="H430" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I430" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J430" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="431" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11791,13 +11754,13 @@
       <c r="F431" s="4"/>
       <c r="G431" s="5"/>
       <c r="H431" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I431" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J431" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="432" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11809,13 +11772,13 @@
       <c r="F432" s="4"/>
       <c r="G432" s="5"/>
       <c r="H432" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I432" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J432" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="433" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11827,13 +11790,13 @@
       <c r="F433" s="4"/>
       <c r="G433" s="5"/>
       <c r="H433" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I433" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J433" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="434" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11845,13 +11808,13 @@
       <c r="F434" s="4"/>
       <c r="G434" s="5"/>
       <c r="H434" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I434" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J434" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="435" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11863,13 +11826,13 @@
       <c r="F435" s="4"/>
       <c r="G435" s="5"/>
       <c r="H435" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I435" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J435" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="436" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11881,13 +11844,13 @@
       <c r="F436" s="4"/>
       <c r="G436" s="5"/>
       <c r="H436" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I436" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J436" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="437" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11899,13 +11862,13 @@
       <c r="F437" s="4"/>
       <c r="G437" s="5"/>
       <c r="H437" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I437" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J437" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="438" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11917,13 +11880,13 @@
       <c r="F438" s="4"/>
       <c r="G438" s="5"/>
       <c r="H438" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I438" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J438" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="439" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11935,13 +11898,13 @@
       <c r="F439" s="4"/>
       <c r="G439" s="5"/>
       <c r="H439" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I439" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J439" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="440" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11953,13 +11916,13 @@
       <c r="F440" s="4"/>
       <c r="G440" s="5"/>
       <c r="H440" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I440" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J440" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="441" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11971,13 +11934,13 @@
       <c r="F441" s="4"/>
       <c r="G441" s="5"/>
       <c r="H441" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I441" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J441" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="442" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11989,13 +11952,13 @@
       <c r="F442" s="4"/>
       <c r="G442" s="5"/>
       <c r="H442" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I442" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J442" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="443" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12101,13 +12064,13 @@
         <v>305</v>
       </c>
       <c r="H447" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I447" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J447" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="448" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12119,13 +12082,13 @@
       <c r="F448" s="4"/>
       <c r="G448" s="5"/>
       <c r="H448" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I448" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J448" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="449" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12137,13 +12100,13 @@
       <c r="F449" s="4"/>
       <c r="G449" s="5"/>
       <c r="H449" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I449" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J449" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="450" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12155,13 +12118,13 @@
       <c r="F450" s="4"/>
       <c r="G450" s="5"/>
       <c r="H450" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I450" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J450" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="451" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12173,13 +12136,13 @@
       <c r="F451" s="4"/>
       <c r="G451" s="5"/>
       <c r="H451" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I451" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J451" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="452" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12191,13 +12154,13 @@
       <c r="F452" s="4"/>
       <c r="G452" s="5"/>
       <c r="H452" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I452" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J452" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="453" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12209,13 +12172,13 @@
       <c r="F453" s="4"/>
       <c r="G453" s="5"/>
       <c r="H453" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I453" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J453" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="454" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12227,13 +12190,13 @@
       <c r="F454" s="4"/>
       <c r="G454" s="5"/>
       <c r="H454" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I454" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J454" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="455" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12245,13 +12208,13 @@
       <c r="F455" s="4"/>
       <c r="G455" s="5"/>
       <c r="H455" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I455" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J455" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="456" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12263,13 +12226,13 @@
       <c r="F456" s="4"/>
       <c r="G456" s="5"/>
       <c r="H456" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I456" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J456" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="457" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12281,13 +12244,13 @@
       <c r="F457" s="4"/>
       <c r="G457" s="5"/>
       <c r="H457" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I457" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J457" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="458" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12299,13 +12262,13 @@
       <c r="F458" s="4"/>
       <c r="G458" s="5"/>
       <c r="H458" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I458" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J458" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="459" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12317,13 +12280,13 @@
       <c r="F459" s="4"/>
       <c r="G459" s="5"/>
       <c r="H459" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I459" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J459" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="460" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12335,13 +12298,13 @@
       <c r="F460" s="4"/>
       <c r="G460" s="5"/>
       <c r="H460" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I460" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J460" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="461" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12353,13 +12316,13 @@
       <c r="F461" s="4"/>
       <c r="G461" s="5"/>
       <c r="H461" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I461" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J461" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="462" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12371,13 +12334,13 @@
       <c r="F462" s="4"/>
       <c r="G462" s="5"/>
       <c r="H462" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I462" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J462" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="463" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12389,13 +12352,13 @@
       <c r="F463" s="4"/>
       <c r="G463" s="5"/>
       <c r="H463" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I463" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J463" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="464" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12407,13 +12370,13 @@
       <c r="F464" s="4"/>
       <c r="G464" s="5"/>
       <c r="H464" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I464" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J464" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="465" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12425,13 +12388,13 @@
       <c r="F465" s="4"/>
       <c r="G465" s="5"/>
       <c r="H465" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I465" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J465" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="466" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12443,13 +12406,13 @@
       <c r="F466" s="4"/>
       <c r="G466" s="5"/>
       <c r="H466" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I466" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J466" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="467" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12461,13 +12424,13 @@
       <c r="F467" s="4"/>
       <c r="G467" s="5"/>
       <c r="H467" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I467" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J467" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="468" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12479,13 +12442,13 @@
       <c r="F468" s="4"/>
       <c r="G468" s="5"/>
       <c r="H468" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I468" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J468" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="469" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12497,13 +12460,13 @@
       <c r="F469" s="4"/>
       <c r="G469" s="5"/>
       <c r="H469" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I469" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J469" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="470" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12515,13 +12478,13 @@
       <c r="F470" s="4"/>
       <c r="G470" s="5"/>
       <c r="H470" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I470" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J470" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="471" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12533,13 +12496,13 @@
       <c r="F471" s="4"/>
       <c r="G471" s="5"/>
       <c r="H471" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I471" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J471" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="472" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12551,13 +12514,13 @@
       <c r="F472" s="4"/>
       <c r="G472" s="5"/>
       <c r="H472" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I472" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J472" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="473" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12569,13 +12532,13 @@
       <c r="F473" s="4"/>
       <c r="G473" s="5"/>
       <c r="H473" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I473" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J473" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="474" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12587,13 +12550,13 @@
       <c r="F474" s="4"/>
       <c r="G474" s="5"/>
       <c r="H474" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I474" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J474" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="475" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12605,13 +12568,13 @@
       <c r="F475" s="4"/>
       <c r="G475" s="5"/>
       <c r="H475" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I475" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J475" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="476" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12623,13 +12586,13 @@
       <c r="F476" s="4"/>
       <c r="G476" s="5"/>
       <c r="H476" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I476" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J476" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12641,13 +12604,13 @@
       <c r="F477" s="4"/>
       <c r="G477" s="5"/>
       <c r="H477" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I477" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J477" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="478" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12659,13 +12622,13 @@
       <c r="F478" s="4"/>
       <c r="G478" s="5"/>
       <c r="H478" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I478" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J478" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="479" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12691,13 +12654,13 @@
         <v>306</v>
       </c>
       <c r="H479" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I479" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J479" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="480" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12709,13 +12672,13 @@
       <c r="F480" s="8"/>
       <c r="G480" s="9"/>
       <c r="H480" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I480" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J480" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="481" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12727,13 +12690,13 @@
       <c r="F481" s="8"/>
       <c r="G481" s="9"/>
       <c r="H481" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I481" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J481" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="482" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12745,13 +12708,13 @@
       <c r="F482" s="8"/>
       <c r="G482" s="9"/>
       <c r="H482" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I482" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J482" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="483" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12763,13 +12726,13 @@
       <c r="F483" s="8"/>
       <c r="G483" s="9"/>
       <c r="H483" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I483" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J483" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="484" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12781,13 +12744,13 @@
       <c r="F484" s="8"/>
       <c r="G484" s="9"/>
       <c r="H484" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I484" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J484" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="485" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12799,13 +12762,13 @@
       <c r="F485" s="8"/>
       <c r="G485" s="9"/>
       <c r="H485" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I485" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J485" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="486" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12817,13 +12780,13 @@
       <c r="F486" s="8"/>
       <c r="G486" s="9"/>
       <c r="H486" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I486" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J486" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="487" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12835,13 +12798,13 @@
       <c r="F487" s="8"/>
       <c r="G487" s="9"/>
       <c r="H487" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I487" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J487" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="488" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12867,13 +12830,13 @@
         <v>307</v>
       </c>
       <c r="H488" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I488" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J488" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="489" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12885,13 +12848,13 @@
       <c r="F489" s="8"/>
       <c r="G489" s="9"/>
       <c r="H489" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I489" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J489" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="490" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12903,13 +12866,13 @@
       <c r="F490" s="8"/>
       <c r="G490" s="9"/>
       <c r="H490" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I490" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J490" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="491" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12921,13 +12884,13 @@
       <c r="F491" s="8"/>
       <c r="G491" s="9"/>
       <c r="H491" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I491" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J491" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="492" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12939,13 +12902,13 @@
       <c r="F492" s="8"/>
       <c r="G492" s="9"/>
       <c r="H492" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I492" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J492" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="493" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12957,13 +12920,13 @@
       <c r="F493" s="8"/>
       <c r="G493" s="9"/>
       <c r="H493" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I493" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J493" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="494" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12975,13 +12938,13 @@
       <c r="F494" s="8"/>
       <c r="G494" s="9"/>
       <c r="H494" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I494" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J494" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="495" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12993,13 +12956,13 @@
       <c r="F495" s="8"/>
       <c r="G495" s="9"/>
       <c r="H495" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I495" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J495" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="496" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13011,13 +12974,13 @@
       <c r="F496" s="8"/>
       <c r="G496" s="9"/>
       <c r="H496" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I496" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J496" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="497" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13029,13 +12992,13 @@
       <c r="F497" s="8"/>
       <c r="G497" s="9"/>
       <c r="H497" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I497" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J497" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="498" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13047,13 +13010,13 @@
       <c r="F498" s="8"/>
       <c r="G498" s="9"/>
       <c r="H498" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I498" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J498" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="499" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13065,13 +13028,13 @@
       <c r="F499" s="8"/>
       <c r="G499" s="9"/>
       <c r="H499" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I499" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J499" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="500" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13083,13 +13046,13 @@
       <c r="F500" s="8"/>
       <c r="G500" s="9"/>
       <c r="H500" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I500" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J500" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="501" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13101,13 +13064,13 @@
       <c r="F501" s="8"/>
       <c r="G501" s="9"/>
       <c r="H501" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I501" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J501" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="502" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13119,13 +13082,13 @@
       <c r="F502" s="8"/>
       <c r="G502" s="9"/>
       <c r="H502" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I502" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J502" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="503" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13137,13 +13100,13 @@
       <c r="F503" s="8"/>
       <c r="G503" s="9"/>
       <c r="H503" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I503" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J503" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="504" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13155,13 +13118,13 @@
       <c r="F504" s="8"/>
       <c r="G504" s="9"/>
       <c r="H504" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I504" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J504" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="505" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13173,13 +13136,13 @@
       <c r="F505" s="8"/>
       <c r="G505" s="9"/>
       <c r="H505" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I505" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J505" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="506" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13191,13 +13154,13 @@
       <c r="F506" s="8"/>
       <c r="G506" s="9"/>
       <c r="H506" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I506" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J506" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="507" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13209,13 +13172,13 @@
       <c r="F507" s="8"/>
       <c r="G507" s="9"/>
       <c r="H507" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I507" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J507" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="508" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13227,13 +13190,13 @@
       <c r="F508" s="8"/>
       <c r="G508" s="9"/>
       <c r="H508" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I508" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J508" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="509" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13245,13 +13208,13 @@
       <c r="F509" s="8"/>
       <c r="G509" s="9"/>
       <c r="H509" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I509" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J509" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="510" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13263,13 +13226,13 @@
       <c r="F510" s="8"/>
       <c r="G510" s="9"/>
       <c r="H510" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I510" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J510" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="511" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13281,13 +13244,13 @@
       <c r="F511" s="8"/>
       <c r="G511" s="9"/>
       <c r="H511" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I511" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J511" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="512" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13299,13 +13262,13 @@
       <c r="F512" s="8"/>
       <c r="G512" s="9"/>
       <c r="H512" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I512" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J512" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="513" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13317,13 +13280,13 @@
       <c r="F513" s="8"/>
       <c r="G513" s="9"/>
       <c r="H513" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I513" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J513" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="514" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13335,13 +13298,13 @@
       <c r="F514" s="8"/>
       <c r="G514" s="9"/>
       <c r="H514" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I514" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J514" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="515" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13353,13 +13316,13 @@
       <c r="F515" s="8"/>
       <c r="G515" s="9"/>
       <c r="H515" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I515" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J515" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="516" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13371,13 +13334,13 @@
       <c r="F516" s="8"/>
       <c r="G516" s="9"/>
       <c r="H516" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I516" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J516" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="517" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13389,13 +13352,13 @@
       <c r="F517" s="8"/>
       <c r="G517" s="9"/>
       <c r="H517" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I517" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J517" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="518" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13407,13 +13370,13 @@
       <c r="F518" s="8"/>
       <c r="G518" s="9"/>
       <c r="H518" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I518" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J518" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="519" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13425,13 +13388,13 @@
       <c r="F519" s="8"/>
       <c r="G519" s="9"/>
       <c r="H519" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I519" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J519" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="520" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13457,13 +13420,13 @@
         <v>308</v>
       </c>
       <c r="H520" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I520" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J520" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="521" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13475,13 +13438,13 @@
       <c r="F521" s="8"/>
       <c r="G521" s="9"/>
       <c r="H521" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I521" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J521" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="522" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13493,13 +13456,13 @@
       <c r="F522" s="8"/>
       <c r="G522" s="9"/>
       <c r="H522" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I522" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J522" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="523" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13511,13 +13474,13 @@
       <c r="F523" s="8"/>
       <c r="G523" s="9"/>
       <c r="H523" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I523" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J523" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="524" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13529,13 +13492,13 @@
       <c r="F524" s="8"/>
       <c r="G524" s="9"/>
       <c r="H524" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I524" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J524" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="525" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13547,13 +13510,13 @@
       <c r="F525" s="8"/>
       <c r="G525" s="9"/>
       <c r="H525" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I525" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J525" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="526" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13565,13 +13528,13 @@
       <c r="F526" s="8"/>
       <c r="G526" s="9"/>
       <c r="H526" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I526" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J526" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="527" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13583,13 +13546,13 @@
       <c r="F527" s="8"/>
       <c r="G527" s="9"/>
       <c r="H527" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I527" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J527" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="528" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13601,13 +13564,13 @@
       <c r="F528" s="8"/>
       <c r="G528" s="9"/>
       <c r="H528" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I528" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J528" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="529" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13633,13 +13596,13 @@
         <v>309</v>
       </c>
       <c r="H529" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I529" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J529" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="530" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13651,13 +13614,13 @@
       <c r="F530" s="8"/>
       <c r="G530" s="9"/>
       <c r="H530" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I530" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J530" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="531" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13669,13 +13632,13 @@
       <c r="F531" s="8"/>
       <c r="G531" s="9"/>
       <c r="H531" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I531" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J531" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="532" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13687,13 +13650,13 @@
       <c r="F532" s="8"/>
       <c r="G532" s="9"/>
       <c r="H532" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I532" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J532" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="533" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13705,13 +13668,13 @@
       <c r="F533" s="8"/>
       <c r="G533" s="9"/>
       <c r="H533" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I533" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J533" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="534" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13723,13 +13686,13 @@
       <c r="F534" s="8"/>
       <c r="G534" s="9"/>
       <c r="H534" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I534" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J534" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="535" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13741,13 +13704,13 @@
       <c r="F535" s="8"/>
       <c r="G535" s="9"/>
       <c r="H535" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I535" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J535" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="536" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13759,13 +13722,13 @@
       <c r="F536" s="8"/>
       <c r="G536" s="9"/>
       <c r="H536" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I536" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J536" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="537" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13777,13 +13740,13 @@
       <c r="F537" s="8"/>
       <c r="G537" s="9"/>
       <c r="H537" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I537" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J537" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="538" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13795,13 +13758,13 @@
       <c r="F538" s="8"/>
       <c r="G538" s="9"/>
       <c r="H538" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I538" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J538" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13813,13 +13776,13 @@
       <c r="F539" s="8"/>
       <c r="G539" s="9"/>
       <c r="H539" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I539" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J539" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="540" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13831,13 +13794,13 @@
       <c r="F540" s="8"/>
       <c r="G540" s="9"/>
       <c r="H540" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I540" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J540" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="541" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13849,13 +13812,13 @@
       <c r="F541" s="8"/>
       <c r="G541" s="9"/>
       <c r="H541" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I541" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J541" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="542" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13867,13 +13830,13 @@
       <c r="F542" s="8"/>
       <c r="G542" s="9"/>
       <c r="H542" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I542" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J542" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="543" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13885,13 +13848,13 @@
       <c r="F543" s="8"/>
       <c r="G543" s="9"/>
       <c r="H543" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I543" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J543" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="544" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13903,13 +13866,13 @@
       <c r="F544" s="8"/>
       <c r="G544" s="9"/>
       <c r="H544" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I544" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J544" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="545" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13921,13 +13884,13 @@
       <c r="F545" s="8"/>
       <c r="G545" s="9"/>
       <c r="H545" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I545" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J545" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="546" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13939,13 +13902,13 @@
       <c r="F546" s="8"/>
       <c r="G546" s="9"/>
       <c r="H546" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I546" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J546" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="547" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13957,13 +13920,13 @@
       <c r="F547" s="8"/>
       <c r="G547" s="9"/>
       <c r="H547" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I547" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J547" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="548" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13975,13 +13938,13 @@
       <c r="F548" s="8"/>
       <c r="G548" s="9"/>
       <c r="H548" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I548" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J548" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="549" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -13993,13 +13956,13 @@
       <c r="F549" s="8"/>
       <c r="G549" s="9"/>
       <c r="H549" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I549" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J549" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="550" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14011,13 +13974,13 @@
       <c r="F550" s="8"/>
       <c r="G550" s="9"/>
       <c r="H550" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I550" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J550" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="551" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14029,13 +13992,13 @@
       <c r="F551" s="8"/>
       <c r="G551" s="9"/>
       <c r="H551" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I551" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J551" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="552" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14047,13 +14010,13 @@
       <c r="F552" s="8"/>
       <c r="G552" s="9"/>
       <c r="H552" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I552" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J552" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="553" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14065,13 +14028,13 @@
       <c r="F553" s="8"/>
       <c r="G553" s="9"/>
       <c r="H553" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I553" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J553" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="554" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14083,13 +14046,13 @@
       <c r="F554" s="8"/>
       <c r="G554" s="9"/>
       <c r="H554" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I554" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J554" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="555" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14101,13 +14064,13 @@
       <c r="F555" s="8"/>
       <c r="G555" s="9"/>
       <c r="H555" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I555" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J555" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="556" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14119,13 +14082,13 @@
       <c r="F556" s="8"/>
       <c r="G556" s="9"/>
       <c r="H556" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I556" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J556" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="557" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14137,13 +14100,13 @@
       <c r="F557" s="8"/>
       <c r="G557" s="9"/>
       <c r="H557" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I557" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J557" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="558" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14155,13 +14118,13 @@
       <c r="F558" s="8"/>
       <c r="G558" s="9"/>
       <c r="H558" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I558" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J558" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="559" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14173,13 +14136,13 @@
       <c r="F559" s="8"/>
       <c r="G559" s="9"/>
       <c r="H559" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I559" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J559" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="560" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14191,13 +14154,13 @@
       <c r="F560" s="8"/>
       <c r="G560" s="9"/>
       <c r="H560" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I560" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J560" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="561" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14223,13 +14186,13 @@
         <v>310</v>
       </c>
       <c r="H561" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I561" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J561" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="562" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14241,13 +14204,13 @@
       <c r="F562" s="8"/>
       <c r="G562" s="9"/>
       <c r="H562" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I562" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J562" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="563" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14259,13 +14222,13 @@
       <c r="F563" s="8"/>
       <c r="G563" s="9"/>
       <c r="H563" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I563" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J563" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="564" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14277,13 +14240,13 @@
       <c r="F564" s="8"/>
       <c r="G564" s="9"/>
       <c r="H564" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I564" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J564" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="565" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14295,13 +14258,13 @@
       <c r="F565" s="8"/>
       <c r="G565" s="9"/>
       <c r="H565" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I565" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J565" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="566" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14313,13 +14276,13 @@
       <c r="F566" s="8"/>
       <c r="G566" s="9"/>
       <c r="H566" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I566" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J566" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="567" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14331,13 +14294,13 @@
       <c r="F567" s="8"/>
       <c r="G567" s="9"/>
       <c r="H567" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I567" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J567" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="568" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14349,13 +14312,13 @@
       <c r="F568" s="8"/>
       <c r="G568" s="9"/>
       <c r="H568" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I568" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J568" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="569" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14367,13 +14330,13 @@
       <c r="F569" s="8"/>
       <c r="G569" s="9"/>
       <c r="H569" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I569" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J569" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="570" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14399,13 +14362,13 @@
         <v>311</v>
       </c>
       <c r="H570" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I570" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J570" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="571" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14417,13 +14380,13 @@
       <c r="F571" s="8"/>
       <c r="G571" s="9"/>
       <c r="H571" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I571" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J571" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="572" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14435,13 +14398,13 @@
       <c r="F572" s="8"/>
       <c r="G572" s="9"/>
       <c r="H572" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I572" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J572" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="573" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14453,13 +14416,13 @@
       <c r="F573" s="8"/>
       <c r="G573" s="9"/>
       <c r="H573" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I573" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J573" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="574" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14471,13 +14434,13 @@
       <c r="F574" s="8"/>
       <c r="G574" s="9"/>
       <c r="H574" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I574" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J574" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="575" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14489,13 +14452,13 @@
       <c r="F575" s="8"/>
       <c r="G575" s="9"/>
       <c r="H575" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I575" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J575" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="576" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14507,13 +14470,13 @@
       <c r="F576" s="8"/>
       <c r="G576" s="9"/>
       <c r="H576" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I576" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J576" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="577" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14525,13 +14488,13 @@
       <c r="F577" s="8"/>
       <c r="G577" s="9"/>
       <c r="H577" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I577" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J577" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="578" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14543,13 +14506,13 @@
       <c r="F578" s="8"/>
       <c r="G578" s="9"/>
       <c r="H578" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I578" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J578" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="579" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14561,13 +14524,13 @@
       <c r="F579" s="8"/>
       <c r="G579" s="9"/>
       <c r="H579" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I579" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J579" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="580" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14579,13 +14542,13 @@
       <c r="F580" s="8"/>
       <c r="G580" s="9"/>
       <c r="H580" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I580" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J580" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="581" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14597,13 +14560,13 @@
       <c r="F581" s="8"/>
       <c r="G581" s="9"/>
       <c r="H581" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I581" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J581" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="582" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14615,13 +14578,13 @@
       <c r="F582" s="8"/>
       <c r="G582" s="9"/>
       <c r="H582" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I582" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J582" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="583" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14633,13 +14596,13 @@
       <c r="F583" s="8"/>
       <c r="G583" s="9"/>
       <c r="H583" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I583" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J583" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="584" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14651,13 +14614,13 @@
       <c r="F584" s="8"/>
       <c r="G584" s="9"/>
       <c r="H584" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I584" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J584" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="585" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14669,13 +14632,13 @@
       <c r="F585" s="8"/>
       <c r="G585" s="9"/>
       <c r="H585" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I585" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J585" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="586" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14687,13 +14650,13 @@
       <c r="F586" s="8"/>
       <c r="G586" s="9"/>
       <c r="H586" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I586" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J586" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="587" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14705,13 +14668,13 @@
       <c r="F587" s="8"/>
       <c r="G587" s="9"/>
       <c r="H587" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I587" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J587" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="588" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14723,13 +14686,13 @@
       <c r="F588" s="8"/>
       <c r="G588" s="9"/>
       <c r="H588" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I588" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J588" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="589" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14741,13 +14704,13 @@
       <c r="F589" s="8"/>
       <c r="G589" s="9"/>
       <c r="H589" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I589" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J589" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="590" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14759,13 +14722,13 @@
       <c r="F590" s="8"/>
       <c r="G590" s="9"/>
       <c r="H590" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I590" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J590" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="591" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14777,13 +14740,13 @@
       <c r="F591" s="8"/>
       <c r="G591" s="9"/>
       <c r="H591" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I591" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J591" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="592" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14795,13 +14758,13 @@
       <c r="F592" s="8"/>
       <c r="G592" s="9"/>
       <c r="H592" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I592" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J592" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="593" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14813,13 +14776,13 @@
       <c r="F593" s="8"/>
       <c r="G593" s="9"/>
       <c r="H593" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I593" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J593" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="594" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14831,13 +14794,13 @@
       <c r="F594" s="8"/>
       <c r="G594" s="9"/>
       <c r="H594" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I594" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J594" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="595" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14849,13 +14812,13 @@
       <c r="F595" s="8"/>
       <c r="G595" s="9"/>
       <c r="H595" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I595" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J595" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="596" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14867,13 +14830,13 @@
       <c r="F596" s="8"/>
       <c r="G596" s="9"/>
       <c r="H596" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I596" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J596" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="597" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14885,13 +14848,13 @@
       <c r="F597" s="8"/>
       <c r="G597" s="9"/>
       <c r="H597" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I597" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J597" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="598" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14903,13 +14866,13 @@
       <c r="F598" s="8"/>
       <c r="G598" s="9"/>
       <c r="H598" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I598" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J598" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="599" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14921,13 +14884,13 @@
       <c r="F599" s="8"/>
       <c r="G599" s="9"/>
       <c r="H599" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I599" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J599" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="600" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14939,13 +14902,13 @@
       <c r="F600" s="8"/>
       <c r="G600" s="9"/>
       <c r="H600" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I600" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J600" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="601" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -14957,13 +14920,13 @@
       <c r="F601" s="8"/>
       <c r="G601" s="9"/>
       <c r="H601" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I601" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J601" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="602" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21240,10 +21203,10 @@
       </c>
       <c r="H908" s="5"/>
       <c r="I908" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J908" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="909" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21268,10 +21231,10 @@
       </c>
       <c r="H909" s="5"/>
       <c r="I909" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J909" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="910" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21296,10 +21259,10 @@
       </c>
       <c r="H910" s="5"/>
       <c r="I910" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J910" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="911" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21325,13 +21288,13 @@
         <v>312</v>
       </c>
       <c r="H911" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I911" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J911" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="912" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21356,10 +21319,10 @@
       </c>
       <c r="H912" s="5"/>
       <c r="I912" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J912" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="913" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21385,13 +21348,13 @@
         <v>313</v>
       </c>
       <c r="H913" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I913" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J913" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="914" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21403,13 +21366,13 @@
       <c r="F914" s="4"/>
       <c r="G914" s="5"/>
       <c r="H914" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I914" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J914" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="915" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21435,13 +21398,13 @@
         <v>314</v>
       </c>
       <c r="H915" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I915" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J915" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="916" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21453,13 +21416,13 @@
       <c r="F916" s="4"/>
       <c r="G916" s="5"/>
       <c r="H916" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I916" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J916" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="917" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21485,13 +21448,13 @@
         <v>315</v>
       </c>
       <c r="H917" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I917" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J917" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="918" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21503,13 +21466,13 @@
       <c r="F918" s="4"/>
       <c r="G918" s="5"/>
       <c r="H918" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I918" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J918" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="919" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21535,13 +21498,13 @@
         <v>316</v>
       </c>
       <c r="H919" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I919" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J919" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="920" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21553,13 +21516,13 @@
       <c r="F920" s="4"/>
       <c r="G920" s="5"/>
       <c r="H920" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I920" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J920" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="921" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21585,13 +21548,13 @@
         <v>317</v>
       </c>
       <c r="H921" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I921" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J921" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="922" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21603,13 +21566,13 @@
       <c r="F922" s="8"/>
       <c r="G922" s="9"/>
       <c r="H922" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I922" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J922" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="923" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21635,13 +21598,13 @@
         <v>318</v>
       </c>
       <c r="H923" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I923" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J923" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="924" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21653,13 +21616,13 @@
       <c r="F924" s="8"/>
       <c r="G924" s="9"/>
       <c r="H924" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I924" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J924" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="925" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21685,13 +21648,13 @@
         <v>319</v>
       </c>
       <c r="H925" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I925" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J925" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="926" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21703,13 +21666,13 @@
       <c r="F926" s="8"/>
       <c r="G926" s="9"/>
       <c r="H926" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I926" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J926" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="927" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21735,13 +21698,13 @@
         <v>320</v>
       </c>
       <c r="H927" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I927" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J927" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="928" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21753,13 +21716,13 @@
       <c r="F928" s="8"/>
       <c r="G928" s="9"/>
       <c r="H928" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I928" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J928" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="929" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22200,10 +22163,10 @@
       </c>
       <c r="H945" s="5"/>
       <c r="I945" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J945" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="946" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22228,10 +22191,10 @@
       </c>
       <c r="H946" s="5"/>
       <c r="I946" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J946" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="947" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22256,10 +22219,10 @@
       </c>
       <c r="H947" s="5"/>
       <c r="I947" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J947" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="948" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22285,13 +22248,13 @@
         <v>321</v>
       </c>
       <c r="H948" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I948" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J948" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="949" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22317,13 +22280,13 @@
         <v>322</v>
       </c>
       <c r="H949" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I949" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J949" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="950" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22335,13 +22298,13 @@
       <c r="F950" s="8"/>
       <c r="G950" s="9"/>
       <c r="H950" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I950" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J950" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="951" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22367,13 +22330,13 @@
         <v>323</v>
       </c>
       <c r="H951" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I951" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J951" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="952" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22385,13 +22348,13 @@
       <c r="F952" s="4"/>
       <c r="G952" s="5"/>
       <c r="H952" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I952" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J952" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="953" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22416,10 +22379,10 @@
       </c>
       <c r="H953" s="5"/>
       <c r="I953" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J953" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="954" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22444,10 +22407,10 @@
       </c>
       <c r="H954" s="5"/>
       <c r="I954" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J954" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="955" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22473,13 +22436,13 @@
         <v>324</v>
       </c>
       <c r="H955" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I955" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J955" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="956" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22505,13 +22468,13 @@
         <v>325</v>
       </c>
       <c r="H956" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I956" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J956" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="957" spans="1:10" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22533,17 +22496,17 @@
       <c r="F957" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="G957" s="11" t="s">
-        <v>326</v>
+      <c r="G957" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="H957" s="11" t="s">
-        <v>517</v>
+        <v>252</v>
       </c>
       <c r="I957" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J957" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="958" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22566,16 +22529,16 @@
         <v>256</v>
       </c>
       <c r="G958" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H958" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I958" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J958" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="959" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22664,10 +22627,10 @@
       </c>
       <c r="H961" s="5"/>
       <c r="I961" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J961" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="962" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22692,10 +22655,10 @@
       </c>
       <c r="H962" s="5"/>
       <c r="I962" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J962" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="963" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22956,10 +22919,10 @@
       </c>
       <c r="H973" s="5"/>
       <c r="I973" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J973" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="974" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23014,16 +22977,16 @@
         <v>256</v>
       </c>
       <c r="G975" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H975" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I975" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J975" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="976" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23048,10 +23011,10 @@
       </c>
       <c r="H976" s="5"/>
       <c r="I976" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J976" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="977" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23074,16 +23037,16 @@
         <v>256</v>
       </c>
       <c r="G977" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H977" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I977" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J977" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="978" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23095,13 +23058,13 @@
       <c r="F978" s="4"/>
       <c r="G978" s="5"/>
       <c r="H978" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I978" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J978" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="979" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23113,13 +23076,13 @@
       <c r="F979" s="4"/>
       <c r="G979" s="5"/>
       <c r="H979" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I979" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J979" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="980" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23142,16 +23105,16 @@
         <v>256</v>
       </c>
       <c r="G980" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H980" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I980" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J980" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="981" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23163,13 +23126,13 @@
       <c r="F981" s="4"/>
       <c r="G981" s="5"/>
       <c r="H981" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I981" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J981" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="982" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23181,13 +23144,13 @@
       <c r="F982" s="4"/>
       <c r="G982" s="5"/>
       <c r="H982" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I982" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J982" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="983" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23282,16 +23245,16 @@
         <v>256</v>
       </c>
       <c r="G986" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H986" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I986" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J986" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="987" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23314,16 +23277,16 @@
         <v>256</v>
       </c>
       <c r="G987" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H987" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I987" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J987" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="988" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23380,10 +23343,10 @@
       </c>
       <c r="H989" s="5"/>
       <c r="I989" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J989" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="990" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23408,10 +23371,10 @@
       </c>
       <c r="H990" s="5"/>
       <c r="I990" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J990" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="991" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23436,10 +23399,10 @@
       </c>
       <c r="H991" s="5"/>
       <c r="I991" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J991" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="992" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23462,16 +23425,16 @@
         <v>256</v>
       </c>
       <c r="G992" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H992" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I992" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J992" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="993" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23494,16 +23457,16 @@
         <v>256</v>
       </c>
       <c r="G993" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H993" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I993" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J993" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="994" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23547,13 +23510,13 @@
       <c r="F995" s="4"/>
       <c r="G995" s="5"/>
       <c r="H995" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I995" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J995" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="996" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23576,16 +23539,16 @@
         <v>256</v>
       </c>
       <c r="G996" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H996" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I996" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J996" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="997" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23608,16 +23571,16 @@
         <v>256</v>
       </c>
       <c r="G997" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H997" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I997" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J997" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="998" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23640,16 +23603,16 @@
         <v>256</v>
       </c>
       <c r="G998" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H998" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I998" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J998" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="999" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23672,16 +23635,16 @@
         <v>256</v>
       </c>
       <c r="G999" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H999" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I999" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J999" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1000" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23704,16 +23667,16 @@
         <v>256</v>
       </c>
       <c r="G1000" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1000" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I1000" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1000" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1001" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23736,16 +23699,16 @@
         <v>256</v>
       </c>
       <c r="G1001" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1001" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I1001" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1001" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1002" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23770,10 +23733,10 @@
       </c>
       <c r="H1002" s="5"/>
       <c r="I1002" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1002" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1003" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23798,10 +23761,10 @@
       </c>
       <c r="H1003" s="5"/>
       <c r="I1003" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1003" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1004" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23826,10 +23789,10 @@
       </c>
       <c r="H1004" s="5"/>
       <c r="I1004" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1004" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1005" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23854,10 +23817,10 @@
       </c>
       <c r="H1005" s="5"/>
       <c r="I1005" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1005" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1006" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24076,10 +24039,10 @@
       </c>
       <c r="H1012" s="5"/>
       <c r="I1012" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1012" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1013" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24106,10 +24069,10 @@
       </c>
       <c r="H1013" s="5"/>
       <c r="I1013" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1013" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1014" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24136,10 +24099,10 @@
       </c>
       <c r="H1014" s="5"/>
       <c r="I1014" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1014" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1015" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24166,10 +24129,10 @@
       </c>
       <c r="H1015" s="5"/>
       <c r="I1015" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1015" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1016" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24192,16 +24155,16 @@
         <v>256</v>
       </c>
       <c r="G1016" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1016" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I1016" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1016" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1017" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24228,10 +24191,10 @@
       </c>
       <c r="H1017" s="5"/>
       <c r="I1017" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1017" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1018" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24290,10 +24253,10 @@
       </c>
       <c r="H1019" s="5"/>
       <c r="I1019" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1019" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1020" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24352,10 +24315,10 @@
       </c>
       <c r="H1021" s="5"/>
       <c r="I1021" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1021" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1022" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24382,10 +24345,10 @@
       </c>
       <c r="H1022" s="5"/>
       <c r="I1022" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1022" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1023" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24412,10 +24375,10 @@
       </c>
       <c r="H1023" s="5"/>
       <c r="I1023" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1023" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1024" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24442,10 +24405,10 @@
       </c>
       <c r="H1024" s="5"/>
       <c r="I1024" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1024" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1025" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24472,10 +24435,10 @@
       </c>
       <c r="H1025" s="5"/>
       <c r="I1025" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1025" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1026" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24502,10 +24465,10 @@
       </c>
       <c r="H1026" s="5"/>
       <c r="I1026" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1026" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1027" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -24532,10 +24495,10 @@
       </c>
       <c r="H1027" s="5"/>
       <c r="I1027" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J1027" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1028" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
